--- a/OpsAndMats/Tanks.xlsx
+++ b/OpsAndMats/Tanks.xlsx
@@ -272,13 +272,13 @@
     <t>8025683-2</t>
   </si>
   <si>
-    <t>766A-12</t>
+    <t>M766A-12</t>
   </si>
   <si>
-    <t>766A-18</t>
+    <t>M766A-18</t>
   </si>
   <si>
-    <t>766A-24</t>
+    <t>M766A-24</t>
   </si>
   <si>
     <t>8033596-X</t>

--- a/OpsAndMats/Tanks.xlsx
+++ b/OpsAndMats/Tanks.xlsx
@@ -710,7 +710,7 @@
     <t>Washer, Standard, 5/16, St. Stl.</t>
   </si>
   <si>
-    <t>Nut, ASF full, 5/16-18, St. Stl.</t>
+    <t>Hex Nut, full, 5/16-18, St. Stl.</t>
   </si>
   <si>
     <t>Threaded Rod, 5/16-18, St. Stl.</t>
